--- a/data/trans_dic/P22$concerIndv-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerIndv-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1144277443097624</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1751582931189388</v>
+        <v>0.1751582931189387</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07084921758026305</v>
+        <v>0.0717675948534568</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06980609688971949</v>
+        <v>0.07334019441254379</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06990297914261415</v>
+        <v>0.06957053645450728</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1263361436673807</v>
+        <v>0.1253403761038758</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07505657758672664</v>
+        <v>0.07709403655794944</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04991367160321395</v>
+        <v>0.05139182232742353</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.101362099128643</v>
+        <v>0.1011632050206941</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1688597631494511</v>
+        <v>0.1687155591375373</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08136741689782553</v>
+        <v>0.08207786869353188</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07100609288749105</v>
+        <v>0.07103168961338584</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09370283888562762</v>
+        <v>0.09309096699196713</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.15397870161869</v>
+        <v>0.1539100414463866</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1260549070521039</v>
+        <v>0.1265694960979454</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1333733783702781</v>
+        <v>0.1356352142137248</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1296721725691155</v>
+        <v>0.1270540921931325</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1872607240339696</v>
+        <v>0.1863738981090833</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1487414993332523</v>
+        <v>0.1535124602066681</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1133206908421538</v>
+        <v>0.11415623354461</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1807018394483175</v>
+        <v>0.1813744881286251</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2298487787858764</v>
+        <v>0.2312683429117902</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1280422305170578</v>
+        <v>0.1249566927273217</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1148973014885598</v>
+        <v>0.1158397816175536</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1426484651556341</v>
+        <v>0.1394899143463965</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.197659462722369</v>
+        <v>0.1972269851811909</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02071302239785146</v>
+        <v>0.02281425064094554</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04223728176588404</v>
+        <v>0.04207809581385553</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04504099682562793</v>
+        <v>0.04607715766464537</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09382093915851697</v>
+        <v>0.0917272585580572</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03535227604133166</v>
+        <v>0.03787608995074561</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03457159525323104</v>
+        <v>0.03358796972286238</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07826605499091656</v>
+        <v>0.07980106966939257</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1439131789785874</v>
+        <v>0.1459161274907216</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03373398893706513</v>
+        <v>0.03429451899656476</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04477183601810791</v>
+        <v>0.0439352930279786</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06690608275247814</v>
+        <v>0.06790293145658777</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.125884916929317</v>
+        <v>0.126698552522135</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06551091348179773</v>
+        <v>0.06658945932252043</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09773028640127265</v>
+        <v>0.09686713539103886</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1026872721547291</v>
+        <v>0.1019582408778909</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1612294035185931</v>
+        <v>0.161232311146956</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09022140029798636</v>
+        <v>0.08919184203780713</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09189203463217885</v>
+        <v>0.0881657168553828</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1495961737394983</v>
+        <v>0.1504593927218446</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2051969946680154</v>
+        <v>0.2071444658451525</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06802293906346649</v>
+        <v>0.06738297922933704</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08422756985812502</v>
+        <v>0.08321631483747119</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1125342277389902</v>
+        <v>0.1102135153940918</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.171933546638678</v>
+        <v>0.1735129497202612</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.02098643586203913</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.05097264287619394</v>
+        <v>0.05097264287619393</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.006726556229694053</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01207456833126969</v>
+        <v>0.01243990903309</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01344752450362557</v>
+        <v>0.01360436936396241</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0111002348078212</v>
+        <v>0.009712700704989608</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03294248316837658</v>
+        <v>0.03158121957296385</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.007857680661157185</v>
+        <v>0.007967370106224489</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02253445409962643</v>
+        <v>0.02298138990476067</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06223994274770003</v>
+        <v>0.06433852279762374</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01071564846176962</v>
+        <v>0.01018254808567386</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01565256271952037</v>
+        <v>0.01462210056209173</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01701438050726981</v>
+        <v>0.01690293091714743</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0451184592822657</v>
+        <v>0.04449592137008392</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.044200463611881</v>
+        <v>0.04428573475783325</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04193184579656713</v>
+        <v>0.04332575404607196</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03777218000199322</v>
+        <v>0.03700719153030242</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08195149892249755</v>
+        <v>0.07568309638224475</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03369195675597327</v>
+        <v>0.03724589023323044</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05521510030753227</v>
+        <v>0.05623650151362838</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08413447722361235</v>
+        <v>0.08778077358754866</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.131155781836833</v>
+        <v>0.1302660583212403</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03560611912151409</v>
+        <v>0.03576020271387134</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03948277997670276</v>
+        <v>0.03783862236735192</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04202226304880616</v>
+        <v>0.04168596994155135</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08437480959483031</v>
+        <v>0.08256567906014131</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.01635835224452864</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05223877461899432</v>
+        <v>0.05223877461899434</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.005604556333589797</v>
+        <v>0.005710628453317493</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.009285278250262608</v>
+        <v>0.008364177603537623</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.007191573571275399</v>
+        <v>0.006998534831337291</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.028029901234942</v>
+        <v>0.02789553081965328</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01737962593818396</v>
+        <v>0.01653118395317493</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02383054521769582</v>
+        <v>0.0236727346496493</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01249869780200136</v>
+        <v>0.01241508807355712</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05566929062177864</v>
+        <v>0.05567541186148681</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01135784474760385</v>
+        <v>0.0114087363580488</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0162002845069991</v>
+        <v>0.0170228512142752</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01123440331142313</v>
+        <v>0.01127188313656268</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04381621764257875</v>
+        <v>0.04243720321504774</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0170106520283656</v>
+        <v>0.01663426100252157</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02373355816319475</v>
+        <v>0.02447558967226257</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02206394666514888</v>
+        <v>0.0224080509302873</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05220502359806205</v>
+        <v>0.05258106785223821</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04143898843067916</v>
+        <v>0.04093597158262552</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05281399663290458</v>
+        <v>0.05193501121294744</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03347381160705661</v>
+        <v>0.03292389455290174</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08683188230469176</v>
+        <v>0.08916335558833299</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02271036131385836</v>
+        <v>0.02292354425793005</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03015903808522604</v>
+        <v>0.03181986869716699</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02286230022950327</v>
+        <v>0.02338122578831384</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.0638585200890821</v>
+        <v>0.06145495376441672</v>
       </c>
     </row>
     <row r="16">
@@ -1255,37 +1255,37 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.003903755946626982</v>
+        <v>0.00522948182852089</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003104840382393019</v>
+        <v>0.003060176360868646</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.004563767141905553</v>
+        <v>0.004802171826620807</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.005218085880222422</v>
+        <v>0.005289536240048583</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.007744437428860115</v>
+        <v>0.006599466005188494</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.008212032499499441</v>
+        <v>0.008331905864381354</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02088634866089177</v>
+        <v>0.02007056370625396</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.003658857914606345</v>
+        <v>0.003956829894545752</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.007676012507159378</v>
+        <v>0.007733622797903524</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.007090933458042405</v>
+        <v>0.006731085545156193</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01677525260300957</v>
+        <v>0.0162838860471185</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01130703973030148</v>
+        <v>0.01210283106965636</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0240971087672704</v>
+        <v>0.02476433166855237</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01781915160885699</v>
+        <v>0.01829711640364043</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0279504064537929</v>
+        <v>0.02756958861583444</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02845773521848214</v>
+        <v>0.02534593297300569</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0258369668978976</v>
+        <v>0.02418038407137726</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02801376008398752</v>
+        <v>0.02812191568115383</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04077758046422873</v>
+        <v>0.04160854399421678</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01692376274735023</v>
+        <v>0.01681811708794543</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02107547945673437</v>
+        <v>0.02062518944715683</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02040212699886466</v>
+        <v>0.01997377236769606</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03165013330325401</v>
+        <v>0.03094981994698682</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.00565237335175314</v>
+        <v>0.004139630495112041</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003511344786455746</v>
+        <v>0.00353655799887457</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02722961693882758</v>
+        <v>0.02619569468737165</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02905228927304749</v>
+        <v>0.02907224844256649</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01849200094425766</v>
+        <v>0.01698479615161508</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01995637035652562</v>
+        <v>0.01976439678315308</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02410704214384054</v>
+        <v>0.02350729061262307</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02686623526449224</v>
+        <v>0.02688628579435356</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01580268443401662</v>
+        <v>0.01617674151373288</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02501576988100896</v>
+        <v>0.02473076705150109</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02173765492127159</v>
+        <v>0.02030722376111929</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03133362521251885</v>
+        <v>0.03170771476613671</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.0321907449885221</v>
+        <v>0.0359759220236211</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.07939530484275686</v>
+        <v>0.0791043668466923</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.08893713155193257</v>
+        <v>0.06700177063992566</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05141414513760447</v>
+        <v>0.05117842394983477</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.04099837868992738</v>
+        <v>0.03850874585876324</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04198707321085493</v>
+        <v>0.04305345521824454</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.05155093632983544</v>
+        <v>0.0508132835534589</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04558289091119427</v>
+        <v>0.04556611404816747</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.03522400839782447</v>
+        <v>0.03383921873899779</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.04589549085374862</v>
+        <v>0.04593392380809937</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.04667727753611784</v>
+        <v>0.04542568712318941</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.03895760452056365</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.07433981171198958</v>
+        <v>0.0743398117119896</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02269791721837595</v>
+        <v>0.023011245686852</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02665878504892453</v>
+        <v>0.02668210484143611</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02728568430016921</v>
+        <v>0.02669993339628645</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05675656387617512</v>
+        <v>0.0571294481419264</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03249517471450274</v>
+        <v>0.03265835677155717</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02749130479233675</v>
+        <v>0.02782357128138984</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03789561024078165</v>
+        <v>0.03766540771277228</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07485477334108763</v>
+        <v>0.07504201421746641</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02958378477227849</v>
+        <v>0.02900807866708381</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02857691539351581</v>
+        <v>0.02862858418496627</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.03417647013921919</v>
+        <v>0.03410412096035678</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06856523420701473</v>
+        <v>0.06874708994875381</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0345621757361835</v>
+        <v>0.03432152653066342</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03999077987639244</v>
+        <v>0.03948973568290536</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03923141189165877</v>
+        <v>0.03957163336128711</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07426147861476287</v>
+        <v>0.07457660282355331</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04643764859396848</v>
+        <v>0.04572726772213855</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03989450279776305</v>
+        <v>0.04043204808867581</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05198817102006077</v>
+        <v>0.05186099328451264</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.091225509082551</v>
+        <v>0.09103017832588997</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03902164169248378</v>
+        <v>0.03806170799392072</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0374064506761124</v>
+        <v>0.03821036370696267</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.04423620425991828</v>
+        <v>0.043865889306249</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08081027601683563</v>
+        <v>0.08080842583820781</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>33460</v>
+        <v>33894</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>30520</v>
+        <v>32065</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>29995</v>
+        <v>29852</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>69563</v>
+        <v>69015</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>23018</v>
+        <v>23643</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>15696</v>
+        <v>16160</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>35178</v>
+        <v>35109</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>82473</v>
+        <v>82403</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>63381</v>
+        <v>63935</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>53373</v>
+        <v>53392</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>72727</v>
+        <v>72252</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>159988</v>
+        <v>159917</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>59532</v>
+        <v>59775</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>58312</v>
+        <v>59301</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>55641</v>
+        <v>54518</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>103109</v>
+        <v>102621</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>45616</v>
+        <v>47079</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>35634</v>
+        <v>35897</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>62713</v>
+        <v>62947</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>112261</v>
+        <v>112954</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>99739</v>
+        <v>97335</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>86364</v>
+        <v>87073</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>110716</v>
+        <v>108265</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>205374</v>
+        <v>204925</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7600</v>
+        <v>8371</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>17689</v>
+        <v>17622</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16947</v>
+        <v>17337</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>45335</v>
+        <v>44324</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>13146</v>
+        <v>14085</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>11686</v>
+        <v>11353</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>29136</v>
+        <v>29708</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>60896</v>
+        <v>61743</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>24923</v>
+        <v>25337</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>33884</v>
+        <v>33251</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>50082</v>
+        <v>50828</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>114096</v>
+        <v>114834</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24038</v>
+        <v>24434</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>40929</v>
+        <v>40568</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38637</v>
+        <v>38363</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>77908</v>
+        <v>77909</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>33550</v>
+        <v>33167</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>31061</v>
+        <v>29801</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>55691</v>
+        <v>56012</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>86828</v>
+        <v>87652</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>50255</v>
+        <v>49782</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>63744</v>
+        <v>62979</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>84236</v>
+        <v>82499</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>155833</v>
+        <v>157264</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6539</v>
+        <v>6737</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8464</v>
+        <v>8563</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5793</v>
+        <v>5069</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>15536</v>
+        <v>14894</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2044</v>
+        <v>2073</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3743</v>
+        <v>3818</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11670</v>
+        <v>12063</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7601</v>
+        <v>7223</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>13924</v>
+        <v>13007</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>11707</v>
+        <v>11630</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>29738</v>
+        <v>29328</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23938</v>
+        <v>23984</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>26393</v>
+        <v>27270</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>19714</v>
+        <v>19315</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>38649</v>
+        <v>35693</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5653</v>
+        <v>6249</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14363</v>
+        <v>14629</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13977</v>
+        <v>14582</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>24591</v>
+        <v>24424</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>25257</v>
+        <v>25367</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>35122</v>
+        <v>33659</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>28913</v>
+        <v>28681</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>55612</v>
+        <v>54420</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6923</v>
+        <v>7054</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10753</v>
+        <v>9686</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8261</v>
+        <v>8039</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>31725</v>
+        <v>31573</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12414</v>
+        <v>11808</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>18270</v>
+        <v>18149</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>10278</v>
+        <v>10209</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>47943</v>
+        <v>47948</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>22142</v>
+        <v>22241</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>31180</v>
+        <v>32764</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>22143</v>
+        <v>22217</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>87328</v>
+        <v>84580</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>21011</v>
+        <v>20546</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>27484</v>
+        <v>28343</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>25345</v>
+        <v>25740</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>59088</v>
+        <v>59514</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>29599</v>
+        <v>29240</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>40490</v>
+        <v>39816</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>27526</v>
+        <v>27074</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>74781</v>
+        <v>76788</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>44273</v>
+        <v>44689</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>58047</v>
+        <v>61243</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>45062</v>
+        <v>46085</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>127273</v>
+        <v>122483</v>
       </c>
     </row>
     <row r="20">
@@ -2597,37 +2597,37 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1993</v>
+        <v>2670</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1924</v>
+        <v>1896</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2592</v>
+        <v>2727</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2968</v>
+        <v>3008</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>5898</v>
+        <v>5026</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>6054</v>
+        <v>6143</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>17338</v>
+        <v>16661</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3364</v>
+        <v>3638</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>9765</v>
+        <v>9838</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>9621</v>
+        <v>9133</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>23453</v>
+        <v>22766</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3964</v>
+        <v>4243</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>12304</v>
+        <v>12645</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>11040</v>
+        <v>11336</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>15875</v>
+        <v>15659</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>16185</v>
+        <v>14416</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>19675</v>
+        <v>18414</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>20654</v>
+        <v>20733</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>33851</v>
+        <v>34540</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>15558</v>
+        <v>15461</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>26810</v>
+        <v>26238</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>27682</v>
+        <v>27100</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>44250</v>
+        <v>43271</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1680</v>
+        <v>1231</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7819</v>
+        <v>7522</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>36220</v>
+        <v>36245</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>20514</v>
+        <v>18842</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>21568</v>
+        <v>21360</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>20353</v>
+        <v>19847</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>41482</v>
+        <v>41513</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>21748</v>
+        <v>22263</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>34219</v>
+        <v>33829</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>23509</v>
+        <v>21962</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9315</v>
+        <v>9426</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>8591</v>
+        <v>9601</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>22798</v>
+        <v>22714</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>21098</v>
+        <v>15895</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>64100</v>
+        <v>63806</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>45482</v>
+        <v>42720</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>45378</v>
+        <v>46530</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>43523</v>
+        <v>42901</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>70380</v>
+        <v>70354</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>48476</v>
+        <v>46571</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>62780</v>
+        <v>62833</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>50482</v>
+        <v>49128</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>74081</v>
+        <v>75104</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>91198</v>
+        <v>91278</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>92298</v>
+        <v>90317</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>195383</v>
+        <v>196667</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>109707</v>
+        <v>110258</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>97598</v>
+        <v>98777</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>133612</v>
+        <v>132800</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>272072</v>
+        <v>272753</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>196433</v>
+        <v>192610</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>199211</v>
+        <v>199571</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>236106</v>
+        <v>235607</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>485246</v>
+        <v>486533</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>112803</v>
+        <v>112018</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>136806</v>
+        <v>135092</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>132706</v>
+        <v>133857</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>255643</v>
+        <v>256728</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>156778</v>
+        <v>154380</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>141630</v>
+        <v>143539</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>183299</v>
+        <v>182851</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>331575</v>
+        <v>330865</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>259099</v>
+        <v>252725</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>260762</v>
+        <v>266367</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>305603</v>
+        <v>303045</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>571906</v>
+        <v>571893</v>
       </c>
     </row>
     <row r="32">
